--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Mmp2-Sdc2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.563798381558488</v>
+        <v>2.178730666666667</v>
       </c>
       <c r="H2">
-        <v>0.563798381558488</v>
+        <v>6.536192</v>
       </c>
       <c r="I2">
-        <v>0.005956448506358988</v>
+        <v>0.02119981581611726</v>
       </c>
       <c r="J2">
-        <v>0.005956448506358988</v>
+        <v>0.02119981581611726</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N2">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="O2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P2">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q2">
-        <v>0.3065222683342483</v>
+        <v>1.474302741276444</v>
       </c>
       <c r="R2">
-        <v>0.3065222683342483</v>
+        <v>13.268724671488</v>
       </c>
       <c r="S2">
-        <v>4.752774834116214E-05</v>
+        <v>0.0001960334915274296</v>
       </c>
       <c r="T2">
-        <v>4.752774834116214E-05</v>
+        <v>0.0001960334915274296</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.563798381558488</v>
+        <v>2.178730666666667</v>
       </c>
       <c r="H3">
-        <v>0.563798381558488</v>
+        <v>6.536192</v>
       </c>
       <c r="I3">
-        <v>0.005956448506358988</v>
+        <v>0.02119981581611726</v>
       </c>
       <c r="J3">
-        <v>0.005956448506358988</v>
+        <v>0.02119981581611726</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N3">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="O3">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P3">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q3">
-        <v>25.6676846982444</v>
+        <v>99.56866614692979</v>
       </c>
       <c r="R3">
-        <v>25.6676846982444</v>
+        <v>896.1179953223681</v>
       </c>
       <c r="S3">
-        <v>0.003979897661164977</v>
+        <v>0.01323933865483581</v>
       </c>
       <c r="T3">
-        <v>0.003979897661164977</v>
+        <v>0.01323933865483581</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,123 +652,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.563798381558488</v>
+        <v>2.178730666666667</v>
       </c>
       <c r="H4">
-        <v>0.563798381558488</v>
+        <v>6.536192</v>
       </c>
       <c r="I4">
-        <v>0.005956448506358988</v>
+        <v>0.02119981581611726</v>
       </c>
       <c r="J4">
-        <v>0.005956448506358988</v>
+        <v>0.02119981581611726</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>22.0662428636297</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N4">
-        <v>22.0662428636297</v>
+        <v>0.439328</v>
       </c>
       <c r="O4">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P4">
-        <v>0.3238545745494925</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q4">
-        <v>12.44091201359096</v>
+        <v>0.3190591287751111</v>
       </c>
       <c r="R4">
-        <v>12.44091201359096</v>
+        <v>2.871532158976</v>
       </c>
       <c r="S4">
-        <v>0.00192902309685285</v>
+        <v>4.242430897424266E-05</v>
       </c>
       <c r="T4">
-        <v>0.00192902309685285</v>
+        <v>4.242430897424266E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>81.49360821571931</v>
+        <v>2.178730666666667</v>
       </c>
       <c r="H5">
-        <v>81.49360821571931</v>
+        <v>6.536192</v>
       </c>
       <c r="I5">
-        <v>0.8609682056775636</v>
+        <v>0.02119981581611726</v>
       </c>
       <c r="J5">
-        <v>0.8609682056775636</v>
+        <v>0.02119981581611726</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.543673551326876</v>
+        <v>26.65531</v>
       </c>
       <c r="N5">
-        <v>0.543673551326876</v>
+        <v>79.96593</v>
       </c>
       <c r="O5">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P5">
-        <v>0.007979209136186176</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q5">
-        <v>44.3059193890812</v>
+        <v>58.07474132650667</v>
       </c>
       <c r="R5">
-        <v>44.3059193890812</v>
+        <v>522.67267193856</v>
       </c>
       <c r="S5">
-        <v>0.006869845372708234</v>
+        <v>0.007722019360779784</v>
       </c>
       <c r="T5">
-        <v>0.006869845372708234</v>
+        <v>0.007722019360779784</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>81.49360821571931</v>
+        <v>82.708562</v>
       </c>
       <c r="H6">
-        <v>81.49360821571931</v>
+        <v>248.125686</v>
       </c>
       <c r="I6">
-        <v>0.8609682056775636</v>
+        <v>0.8047834033100231</v>
       </c>
       <c r="J6">
-        <v>0.8609682056775636</v>
+        <v>0.8047834033100231</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>45.5263539907513</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N6">
-        <v>45.5263539907513</v>
+        <v>2.030039</v>
       </c>
       <c r="O6">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P6">
-        <v>0.6681662163143214</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q6">
-        <v>3710.106855612436</v>
+        <v>55.96720216463933</v>
       </c>
       <c r="R6">
-        <v>3710.106855612436</v>
+        <v>503.704819481754</v>
       </c>
       <c r="S6">
-        <v>0.5752698683545081</v>
+        <v>0.007441786374117937</v>
       </c>
       <c r="T6">
-        <v>0.5752698683545081</v>
+        <v>0.007441786374117937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,185 +838,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>81.49360821571931</v>
+        <v>82.708562</v>
       </c>
       <c r="H7">
-        <v>81.49360821571931</v>
+        <v>248.125686</v>
       </c>
       <c r="I7">
-        <v>0.8609682056775636</v>
+        <v>0.8047834033100231</v>
       </c>
       <c r="J7">
-        <v>0.8609682056775636</v>
+        <v>0.8047834033100231</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.0662428636297</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N7">
-        <v>22.0662428636297</v>
+        <v>137.100929</v>
       </c>
       <c r="O7">
-        <v>0.3238545745494925</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P7">
-        <v>0.3238545745494925</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q7">
-        <v>1798.257750721551</v>
+        <v>3779.806895484699</v>
       </c>
       <c r="R7">
-        <v>1798.257750721551</v>
+        <v>34018.2620593623</v>
       </c>
       <c r="S7">
-        <v>0.2788284919503473</v>
+        <v>0.5025892730687</v>
       </c>
       <c r="T7">
-        <v>0.2788284919503473</v>
+        <v>0.5025892730687</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.6248614016184</v>
+        <v>82.708562</v>
       </c>
       <c r="H8">
-        <v>1.6248614016184</v>
+        <v>248.125686</v>
       </c>
       <c r="I8">
-        <v>0.01716642612906518</v>
+        <v>0.8047834033100231</v>
       </c>
       <c r="J8">
-        <v>0.01716642612906518</v>
+        <v>0.8047834033100231</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.543673551326876</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N8">
-        <v>0.543673551326876</v>
+        <v>0.439328</v>
       </c>
       <c r="O8">
-        <v>0.007979209136186176</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P8">
-        <v>0.007979209136186176</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q8">
-        <v>0.8833941686318408</v>
+        <v>12.11206237544533</v>
       </c>
       <c r="R8">
-        <v>0.8833941686318408</v>
+        <v>109.008561379008</v>
       </c>
       <c r="S8">
-        <v>0.000136974504204702</v>
+        <v>0.001610503603215744</v>
       </c>
       <c r="T8">
-        <v>0.000136974504204702</v>
+        <v>0.001610503603215744</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.6248614016184</v>
+        <v>82.708562</v>
       </c>
       <c r="H9">
-        <v>1.6248614016184</v>
+        <v>248.125686</v>
       </c>
       <c r="I9">
-        <v>0.01716642612906518</v>
+        <v>0.8047834033100231</v>
       </c>
       <c r="J9">
-        <v>0.01716642612906518</v>
+        <v>0.8047834033100231</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>45.5263539907513</v>
+        <v>26.65531</v>
       </c>
       <c r="N9">
-        <v>45.5263539907513</v>
+        <v>79.96593</v>
       </c>
       <c r="O9">
-        <v>0.6681662163143214</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P9">
-        <v>0.6681662163143214</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q9">
-        <v>73.9740153559876</v>
+        <v>2204.62235976422</v>
       </c>
       <c r="R9">
-        <v>73.9740153559876</v>
+        <v>19841.60123787798</v>
       </c>
       <c r="S9">
-        <v>0.01147002599429678</v>
+        <v>0.2931418402639894</v>
       </c>
       <c r="T9">
-        <v>0.01147002599429678</v>
+        <v>0.2931418402639894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,433 +1024,991 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.6248614016184</v>
+        <v>0.9760386666666667</v>
       </c>
       <c r="H10">
-        <v>1.6248614016184</v>
+        <v>2.928116</v>
       </c>
       <c r="I10">
-        <v>0.01716642612906518</v>
+        <v>0.009497199575567244</v>
       </c>
       <c r="J10">
-        <v>0.01716642612906518</v>
+        <v>0.009497199575567244</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.0662428636297</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N10">
-        <v>22.0662428636297</v>
+        <v>2.030039</v>
       </c>
       <c r="O10">
-        <v>0.3238545745494925</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P10">
-        <v>0.3238545745494925</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q10">
-        <v>35.85458630784937</v>
+        <v>0.6604655196137779</v>
       </c>
       <c r="R10">
-        <v>35.85458630784937</v>
+        <v>5.944189676524</v>
       </c>
       <c r="S10">
-        <v>0.005559425630563696</v>
+        <v>8.78200645081006E-05</v>
       </c>
       <c r="T10">
-        <v>0.005559425630563696</v>
+        <v>8.78200645081006E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.712332469403155</v>
+        <v>0.9760386666666667</v>
       </c>
       <c r="H11">
-        <v>0.712332469403155</v>
+        <v>2.928116</v>
       </c>
       <c r="I11">
-        <v>0.007525689700773413</v>
+        <v>0.009497199575567244</v>
       </c>
       <c r="J11">
-        <v>0.007525689700773413</v>
+        <v>0.009497199575567244</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.543673551326876</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N11">
-        <v>0.543673551326876</v>
+        <v>137.100929</v>
       </c>
       <c r="O11">
-        <v>0.007979209136186176</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P11">
-        <v>0.007979209136186176</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q11">
-        <v>0.3872763233658565</v>
+        <v>44.60526931330712</v>
       </c>
       <c r="R11">
-        <v>0.3872763233658565</v>
+        <v>401.447423819764</v>
       </c>
       <c r="S11">
-        <v>6.004905201651343E-05</v>
+        <v>0.005931025181733218</v>
       </c>
       <c r="T11">
-        <v>6.004905201651343E-05</v>
+        <v>0.005931025181733218</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.712332469403155</v>
+        <v>0.9760386666666667</v>
       </c>
       <c r="H12">
-        <v>0.712332469403155</v>
+        <v>2.928116</v>
       </c>
       <c r="I12">
-        <v>0.007525689700773413</v>
+        <v>0.009497199575567244</v>
       </c>
       <c r="J12">
-        <v>0.007525689700773413</v>
+        <v>0.009497199575567244</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>45.5263539907513</v>
+        <v>0.1464426666666667</v>
       </c>
       <c r="N12">
-        <v>45.5263539907513</v>
+        <v>0.439328</v>
       </c>
       <c r="O12">
-        <v>0.6681662163143214</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="P12">
-        <v>0.6681662163143214</v>
+        <v>0.002001164035679469</v>
       </c>
       <c r="Q12">
-        <v>32.42990016115406</v>
+        <v>0.1429337051164445</v>
       </c>
       <c r="R12">
-        <v>32.42990016115406</v>
+        <v>1.286403346048</v>
       </c>
       <c r="S12">
-        <v>0.005028411612521429</v>
+        <v>1.900545423029549E-05</v>
       </c>
       <c r="T12">
-        <v>0.005028411612521429</v>
+        <v>1.900545423029549E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s">
-        <v>24</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.712332469403155</v>
+        <v>0.9760386666666667</v>
       </c>
       <c r="H13">
-        <v>0.712332469403155</v>
+        <v>2.928116</v>
       </c>
       <c r="I13">
-        <v>0.007525689700773413</v>
+        <v>0.009497199575567244</v>
       </c>
       <c r="J13">
-        <v>0.007525689700773413</v>
+        <v>0.009497199575567244</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>22.0662428636297</v>
+        <v>26.65531</v>
       </c>
       <c r="N13">
-        <v>22.0662428636297</v>
+        <v>79.96593</v>
       </c>
       <c r="O13">
-        <v>0.3238545745494925</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="P13">
-        <v>0.3238545745494925</v>
+        <v>0.3642493608321389</v>
       </c>
       <c r="Q13">
-        <v>15.71850126949909</v>
+        <v>26.01661323198667</v>
       </c>
       <c r="R13">
-        <v>15.71850126949909</v>
+        <v>234.14951908788</v>
       </c>
       <c r="S13">
-        <v>0.002437229036235471</v>
+        <v>0.00345934887509563</v>
       </c>
       <c r="T13">
-        <v>0.002437229036235471</v>
+        <v>0.00345934887509563</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>10.2588462888728</v>
+        <v>1.920183666666667</v>
       </c>
       <c r="H14">
-        <v>10.2588462888728</v>
+        <v>5.760551</v>
       </c>
       <c r="I14">
-        <v>0.1083832299862388</v>
+        <v>0.01868406255497851</v>
       </c>
       <c r="J14">
-        <v>0.1083832299862388</v>
+        <v>0.01868406255497851</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.543673551326876</v>
+        <v>0.6766796666666667</v>
       </c>
       <c r="N14">
-        <v>0.543673551326876</v>
+        <v>2.030039</v>
       </c>
       <c r="O14">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="P14">
-        <v>0.007979209136186176</v>
+        <v>0.009246943144590633</v>
       </c>
       <c r="Q14">
-        <v>5.577463394388017</v>
+        <v>1.299349243498778</v>
       </c>
       <c r="R14">
-        <v>5.577463394388017</v>
+        <v>11.694143191489</v>
       </c>
       <c r="S14">
-        <v>0.0008648124589155643</v>
+        <v>0.0001727704641558611</v>
       </c>
       <c r="T14">
-        <v>0.0008648124589155643</v>
+        <v>0.0001727704641558611</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>10.2588462888728</v>
+        <v>1.920183666666667</v>
       </c>
       <c r="H15">
-        <v>10.2588462888728</v>
+        <v>5.760551</v>
       </c>
       <c r="I15">
-        <v>0.1083832299862388</v>
+        <v>0.01868406255497851</v>
       </c>
       <c r="J15">
-        <v>0.1083832299862388</v>
+        <v>0.01868406255497851</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>45.5263539907513</v>
+        <v>45.70030966666667</v>
       </c>
       <c r="N15">
-        <v>45.5263539907513</v>
+        <v>137.100929</v>
       </c>
       <c r="O15">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="P15">
-        <v>0.6681662163143214</v>
+        <v>0.624502531987591</v>
       </c>
       <c r="Q15">
-        <v>467.0478676839284</v>
+        <v>87.75298818354212</v>
       </c>
       <c r="R15">
-        <v>467.0478676839284</v>
+        <v>789.7768936518789</v>
       </c>
       <c r="S15">
-        <v>0.07241801269183008</v>
+        <v>0.01166824437339862</v>
       </c>
       <c r="T15">
-        <v>0.07241801269183008</v>
+        <v>0.01166824437339862</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.920183666666667</v>
+      </c>
+      <c r="H16">
+        <v>5.760551</v>
+      </c>
+      <c r="I16">
+        <v>0.01868406255497851</v>
+      </c>
+      <c r="J16">
+        <v>0.01868406255497851</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.439328</v>
+      </c>
+      <c r="O16">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P16">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q16">
+        <v>0.2811968166364444</v>
+      </c>
+      <c r="R16">
+        <v>2.530771349728</v>
+      </c>
+      <c r="S16">
+        <v>3.738987402540845E-05</v>
+      </c>
+      <c r="T16">
+        <v>3.738987402540845E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.920183666666667</v>
+      </c>
+      <c r="H17">
+        <v>5.760551</v>
+      </c>
+      <c r="I17">
+        <v>0.01868406255497851</v>
+      </c>
+      <c r="J17">
+        <v>0.01868406255497851</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>26.65531</v>
+      </c>
+      <c r="N17">
+        <v>79.96593</v>
+      </c>
+      <c r="O17">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P17">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q17">
+        <v>51.18309089193666</v>
+      </c>
+      <c r="R17">
+        <v>460.64781802743</v>
+      </c>
+      <c r="S17">
+        <v>0.006805657843398624</v>
+      </c>
+      <c r="T17">
+        <v>0.006805657843398624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.7135189999999999</v>
+      </c>
+      <c r="H18">
+        <v>2.140557</v>
+      </c>
+      <c r="I18">
+        <v>0.006942790870265212</v>
+      </c>
+      <c r="J18">
+        <v>0.006942790870265212</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6766796666666667</v>
+      </c>
+      <c r="N18">
+        <v>2.030039</v>
+      </c>
+      <c r="O18">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="P18">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="Q18">
+        <v>0.4828237990803333</v>
+      </c>
+      <c r="R18">
+        <v>4.345414191722999</v>
+      </c>
+      <c r="S18">
+        <v>6.419959244212535E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.419959244212535E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.7135189999999999</v>
+      </c>
+      <c r="H19">
+        <v>2.140557</v>
+      </c>
+      <c r="I19">
+        <v>0.006942790870265212</v>
+      </c>
+      <c r="J19">
+        <v>0.006942790870265212</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N19">
+        <v>137.100929</v>
+      </c>
+      <c r="O19">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P19">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q19">
+        <v>32.60803925305033</v>
+      </c>
+      <c r="R19">
+        <v>293.472353277453</v>
+      </c>
+      <c r="S19">
+        <v>0.004335790477540956</v>
+      </c>
+      <c r="T19">
+        <v>0.004335790477540956</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.7135189999999999</v>
+      </c>
+      <c r="H20">
+        <v>2.140557</v>
+      </c>
+      <c r="I20">
+        <v>0.006942790870265212</v>
+      </c>
+      <c r="J20">
+        <v>0.006942790870265212</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.439328</v>
+      </c>
+      <c r="O20">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P20">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q20">
+        <v>0.1044896250773333</v>
+      </c>
+      <c r="R20">
+        <v>0.9404066256959999</v>
+      </c>
+      <c r="S20">
+        <v>1.389366339681851E-05</v>
+      </c>
+      <c r="T20">
+        <v>1.389366339681851E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>10.2588462888728</v>
-      </c>
-      <c r="H16">
-        <v>10.2588462888728</v>
-      </c>
-      <c r="I16">
-        <v>0.1083832299862388</v>
-      </c>
-      <c r="J16">
-        <v>0.1083832299862388</v>
-      </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="N16">
-        <v>22.0662428636297</v>
-      </c>
-      <c r="O16">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="P16">
-        <v>0.3238545745494925</v>
-      </c>
-      <c r="Q16">
-        <v>226.3741937109135</v>
-      </c>
-      <c r="R16">
-        <v>226.3741937109135</v>
-      </c>
-      <c r="S16">
-        <v>0.03510040483549317</v>
-      </c>
-      <c r="T16">
-        <v>0.03510040483549317</v>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.7135189999999999</v>
+      </c>
+      <c r="H21">
+        <v>2.140557</v>
+      </c>
+      <c r="I21">
+        <v>0.006942790870265212</v>
+      </c>
+      <c r="J21">
+        <v>0.006942790870265212</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>26.65531</v>
+      </c>
+      <c r="N21">
+        <v>79.96593</v>
+      </c>
+      <c r="O21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P21">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q21">
+        <v>19.01907013589</v>
+      </c>
+      <c r="R21">
+        <v>171.17163122301</v>
+      </c>
+      <c r="S21">
+        <v>0.002528907136885313</v>
+      </c>
+      <c r="T21">
+        <v>0.002528907136885313</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>14.27417333333333</v>
+      </c>
+      <c r="H22">
+        <v>42.82252</v>
+      </c>
+      <c r="I22">
+        <v>0.1388927278730487</v>
+      </c>
+      <c r="J22">
+        <v>0.1388927278730487</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.6766796666666667</v>
+      </c>
+      <c r="N22">
+        <v>2.030039</v>
+      </c>
+      <c r="O22">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="P22">
+        <v>0.009246943144590633</v>
+      </c>
+      <c r="Q22">
+        <v>9.659042853142221</v>
+      </c>
+      <c r="R22">
+        <v>86.93138567827999</v>
+      </c>
+      <c r="S22">
+        <v>0.00128433315783918</v>
+      </c>
+      <c r="T22">
+        <v>0.00128433315783918</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>14.27417333333333</v>
+      </c>
+      <c r="H23">
+        <v>42.82252</v>
+      </c>
+      <c r="I23">
+        <v>0.1388927278730487</v>
+      </c>
+      <c r="J23">
+        <v>0.1388927278730487</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>45.70030966666667</v>
+      </c>
+      <c r="N23">
+        <v>137.100929</v>
+      </c>
+      <c r="O23">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="P23">
+        <v>0.624502531987591</v>
+      </c>
+      <c r="Q23">
+        <v>652.3341415690088</v>
+      </c>
+      <c r="R23">
+        <v>5871.00727412108</v>
+      </c>
+      <c r="S23">
+        <v>0.08673886023138236</v>
+      </c>
+      <c r="T23">
+        <v>0.08673886023138236</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>14.27417333333333</v>
+      </c>
+      <c r="H24">
+        <v>42.82252</v>
+      </c>
+      <c r="I24">
+        <v>0.1388927278730487</v>
+      </c>
+      <c r="J24">
+        <v>0.1388927278730487</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.1464426666666667</v>
+      </c>
+      <c r="N24">
+        <v>0.439328</v>
+      </c>
+      <c r="O24">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="P24">
+        <v>0.002001164035679469</v>
+      </c>
+      <c r="Q24">
+        <v>2.090348007395555</v>
+      </c>
+      <c r="R24">
+        <v>18.81313206656</v>
+      </c>
+      <c r="S24">
+        <v>0.0002779471318369604</v>
+      </c>
+      <c r="T24">
+        <v>0.0002779471318369604</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>14.27417333333333</v>
+      </c>
+      <c r="H25">
+        <v>42.82252</v>
+      </c>
+      <c r="I25">
+        <v>0.1388927278730487</v>
+      </c>
+      <c r="J25">
+        <v>0.1388927278730487</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>26.65531</v>
+      </c>
+      <c r="N25">
+        <v>79.96593</v>
+      </c>
+      <c r="O25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="P25">
+        <v>0.3642493608321389</v>
+      </c>
+      <c r="Q25">
+        <v>380.4825151937333</v>
+      </c>
+      <c r="R25">
+        <v>3424.3426367436</v>
+      </c>
+      <c r="S25">
+        <v>0.05059158735199019</v>
+      </c>
+      <c r="T25">
+        <v>0.05059158735199019</v>
       </c>
     </row>
   </sheetData>
